--- a/secure/26e-Fabian.xlsx
+++ b/secure/26e-Fabian.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Fabian-253416</t>
+    <t>26e-Fabian-633106</t>
   </si>
   <si>
-    <t>26e-Fabian-1096387</t>
+    <t>26e-Fabian-1043259</t>
   </si>
   <si>
-    <t>26e-Fabian-963407</t>
+    <t>26e-Fabian-1074063</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F6ec1e08"/>
+        <fgColor rgb="Fd23f735"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:SA503"/>
+  <dimension ref="A1:TC503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -661,11 +661,14 @@
       </c>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:523" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>-0.864</v>
       </c>
       <c r="M36" s="4"/>
+      <c r="TC36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -1285,14 +1288,11 @@
       </c>
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="1:486" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>-0.448</v>
       </c>
       <c r="M140" s="4"/>
-      <c r="RR140" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
@@ -1504,11 +1504,14 @@
       </c>
       <c r="M175" s="4"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:292" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>-0.304</v>
       </c>
       <c r="M176" s="4"/>
+      <c r="KF176" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
@@ -1642,14 +1645,11 @@
       </c>
       <c r="M198" s="4"/>
     </row>
-    <row r="199" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>-0.212</v>
       </c>
       <c r="M199" s="4"/>
-      <c r="SA199" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
@@ -2407,11 +2407,14 @@
       </c>
       <c r="M325" s="4"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>0.296</v>
       </c>
       <c r="M326" s="4"/>
+      <c r="NI326" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
@@ -3223,14 +3226,11 @@
       </c>
       <c r="M461" s="4"/>
     </row>
-    <row r="462" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>0.84</v>
       </c>
       <c r="M462" s="4"/>
-      <c r="DF462" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
